--- a/public/assets/templates/products_template.xlsx
+++ b/public/assets/templates/products_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlessingMwale\Documents\Projects\Personal\van-sales\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0BF4B1-939C-49DB-824D-1C1A7A159B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C660981-2509-472A-B2F7-49534D417D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F0B7495C-EA6B-4FBA-99DB-F439B00F3A9F}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15864" windowHeight="13776" xr2:uid="{F0B7495C-EA6B-4FBA-99DB-F439B00F3A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
-  <si>
-    <t>Test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>default.png</t>
   </si>
   <si>
     <t>Bhutsu</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>retail_unit_price</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>wholesale_unit_price</t>
+  </si>
+  <si>
+    <t>reorder_level</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>unit_measure</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Group A</t>
+  </si>
+  <si>
+    <t>Packets</t>
   </si>
 </sst>
 </file>
@@ -399,7 +432,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,45 +449,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>23</v>
-      </c>
-      <c r="F1">
         <v>2</v>
       </c>
-      <c r="G1">
-        <v>23</v>
-      </c>
-      <c r="H1">
-        <v>89</v>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
         <v>56</v>
@@ -469,21 +502,21 @@
         <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3">
         <v>56</v>
@@ -498,21 +531,21 @@
         <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
         <v>56</v>
@@ -527,21 +560,21 @@
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5">
         <v>56</v>
@@ -556,21 +589,21 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
       <c r="E6">
         <v>56</v>
@@ -585,7 +618,7 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
